--- a/Jogos_do_Dia/2023-11-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="L2" t="n">
-        <v>3.41</v>
+        <v>2.95</v>
       </c>
       <c r="M2" t="n">
         <v>1.5</v>
@@ -718,10 +718,10 @@
         <v>2.62</v>
       </c>
       <c r="S2" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="U2" t="n">
         <v>2.05</v>
@@ -830,13 +830,13 @@
         <v>3.8</v>
       </c>
       <c r="J3" t="n">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="K3" t="n">
-        <v>3.66</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>4.29</v>
+        <v>2.86</v>
       </c>
       <c r="M3" t="n">
         <v>1.36</v>
@@ -857,10 +857,10 @@
         <v>3.4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="T3" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="U3" t="n">
         <v>1.8</v>
@@ -926,10 +926,10 @@
         <v>1.36</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-11-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="K2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L2" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="M2" t="n">
         <v>1.5</v>
@@ -718,10 +718,10 @@
         <v>2.62</v>
       </c>
       <c r="S2" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U2" t="n">
         <v>2.05</v>
@@ -830,13 +830,13 @@
         <v>3.8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L3" t="n">
-        <v>2.86</v>
+        <v>2.97</v>
       </c>
       <c r="M3" t="n">
         <v>1.36</v>
@@ -857,10 +857,10 @@
         <v>3.4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T3" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="U3" t="n">
         <v>1.8</v>
